--- a/data/pca/factorExposure/factorExposure_2015-07-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0200540472713213</v>
+        <v>0.01118862622318876</v>
       </c>
       <c r="C2">
-        <v>-0.02628005031816628</v>
+        <v>-0.05214397144681214</v>
       </c>
       <c r="D2">
-        <v>-0.1317330347951848</v>
+        <v>0.1473136325371472</v>
       </c>
       <c r="E2">
-        <v>0.005223581006199588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0126583986211459</v>
+      </c>
+      <c r="F2">
+        <v>-0.01339031499258118</v>
+      </c>
+      <c r="G2">
+        <v>-0.1162877823858808</v>
+      </c>
+      <c r="H2">
+        <v>-0.06233705294544294</v>
+      </c>
+      <c r="I2">
+        <v>0.02802128062431672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.002935054134229624</v>
+        <v>-0.001906742538476504</v>
       </c>
       <c r="C3">
-        <v>-0.01548610400345145</v>
+        <v>-0.01165670360706439</v>
       </c>
       <c r="D3">
-        <v>-0.01470333580041572</v>
+        <v>0.009947651316963962</v>
       </c>
       <c r="E3">
-        <v>-0.00559479548086454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.01820982677097359</v>
+      </c>
+      <c r="F3">
+        <v>0.0099086142482334</v>
+      </c>
+      <c r="G3">
+        <v>-0.001389267175234236</v>
+      </c>
+      <c r="H3">
+        <v>-0.006346494471006619</v>
+      </c>
+      <c r="I3">
+        <v>-0.0288118100120211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0478304523504089</v>
+        <v>0.02246591443170641</v>
       </c>
       <c r="C4">
-        <v>-0.07062891017566754</v>
+        <v>-0.1006657602555295</v>
       </c>
       <c r="D4">
-        <v>-0.1325952079956967</v>
+        <v>0.140086129958534</v>
       </c>
       <c r="E4">
-        <v>-0.07022111535111403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01457053692928417</v>
+      </c>
+      <c r="F4">
+        <v>-0.08647042997488054</v>
+      </c>
+      <c r="G4">
+        <v>-0.01111163647603962</v>
+      </c>
+      <c r="H4">
+        <v>-0.0417392210187336</v>
+      </c>
+      <c r="I4">
+        <v>0.03354664252347146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.026210807881276</v>
+        <v>0.02968429102518166</v>
       </c>
       <c r="C6">
-        <v>-0.01133026639487755</v>
+        <v>-0.02887061529291048</v>
       </c>
       <c r="D6">
-        <v>-0.145148341324208</v>
+        <v>0.1291875405660673</v>
       </c>
       <c r="E6">
-        <v>-0.03044786520736609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04657376467353097</v>
+      </c>
+      <c r="F6">
+        <v>-0.0525783606340851</v>
+      </c>
+      <c r="G6">
+        <v>-0.01621265652810131</v>
+      </c>
+      <c r="H6">
+        <v>-0.06249019941444581</v>
+      </c>
+      <c r="I6">
+        <v>-0.01921618067940761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008947835176805937</v>
+        <v>0.009820963801102589</v>
       </c>
       <c r="C7">
-        <v>-0.02407638524550657</v>
+        <v>-0.0339950473181211</v>
       </c>
       <c r="D7">
-        <v>-0.1153537592519514</v>
+        <v>0.1026381373457717</v>
       </c>
       <c r="E7">
-        <v>0.005308653390873152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.04956630093496009</v>
+      </c>
+      <c r="F7">
+        <v>-0.006117083294759422</v>
+      </c>
+      <c r="G7">
+        <v>0.004601372130599156</v>
+      </c>
+      <c r="H7">
+        <v>-0.07232642525350869</v>
+      </c>
+      <c r="I7">
+        <v>-0.02159693436275337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0009080539713555653</v>
+        <v>-0.009175686438956646</v>
       </c>
       <c r="C8">
-        <v>-0.02823300395764657</v>
+        <v>-0.03368965139946076</v>
       </c>
       <c r="D8">
-        <v>-0.08276191459680485</v>
+        <v>0.08165289760210376</v>
       </c>
       <c r="E8">
-        <v>-0.01876471787019944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01919281352401976</v>
+      </c>
+      <c r="F8">
+        <v>-0.04174110640309633</v>
+      </c>
+      <c r="G8">
+        <v>-0.07062668603775707</v>
+      </c>
+      <c r="H8">
+        <v>-0.004185025628397339</v>
+      </c>
+      <c r="I8">
+        <v>-0.04115251486200117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.04087183300242149</v>
+        <v>0.01644584363920122</v>
       </c>
       <c r="C9">
-        <v>-0.06129146243712619</v>
+        <v>-0.08459328884666251</v>
       </c>
       <c r="D9">
-        <v>-0.1336502777986532</v>
+        <v>0.1218358493364056</v>
       </c>
       <c r="E9">
-        <v>-0.05437797003787137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.004546436668928068</v>
+      </c>
+      <c r="F9">
+        <v>-0.05712237877572331</v>
+      </c>
+      <c r="G9">
+        <v>0.009017752069470275</v>
+      </c>
+      <c r="H9">
+        <v>-0.057988384946417</v>
+      </c>
+      <c r="I9">
+        <v>0.00339344694755906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.147523507796456</v>
+        <v>0.2261600166221167</v>
       </c>
       <c r="C10">
-        <v>0.1848113995115233</v>
+        <v>0.1051212851633784</v>
       </c>
       <c r="D10">
-        <v>-0.0169446346900891</v>
+        <v>-0.001863152540314856</v>
       </c>
       <c r="E10">
-        <v>-0.0470507608369343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02337243144161904</v>
+      </c>
+      <c r="F10">
+        <v>-0.03902149748711547</v>
+      </c>
+      <c r="G10">
+        <v>0.002133399277158182</v>
+      </c>
+      <c r="H10">
+        <v>0.05969242208907603</v>
+      </c>
+      <c r="I10">
+        <v>-0.1268251334556041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02389244148631738</v>
+        <v>0.009832540700950991</v>
       </c>
       <c r="C11">
-        <v>-0.04005417576617418</v>
+        <v>-0.05283587834981811</v>
       </c>
       <c r="D11">
-        <v>-0.05274251412630972</v>
+        <v>0.04561275289634477</v>
       </c>
       <c r="E11">
-        <v>0.01778885392817852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01959884382657891</v>
+      </c>
+      <c r="F11">
+        <v>0.01123089154915841</v>
+      </c>
+      <c r="G11">
+        <v>0.004812163034514162</v>
+      </c>
+      <c r="H11">
+        <v>-0.04915344096816183</v>
+      </c>
+      <c r="I11">
+        <v>0.03341625679679507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02658635195739435</v>
+        <v>0.0113680042911354</v>
       </c>
       <c r="C12">
-        <v>-0.04072770936863578</v>
+        <v>-0.05026149379072888</v>
       </c>
       <c r="D12">
-        <v>-0.06709482376124085</v>
+        <v>0.05025572243994748</v>
       </c>
       <c r="E12">
-        <v>0.009739232774418915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01767324135180975</v>
+      </c>
+      <c r="F12">
+        <v>0.01655549720494762</v>
+      </c>
+      <c r="G12">
+        <v>0.02380534707208226</v>
+      </c>
+      <c r="H12">
+        <v>-0.07246886800421838</v>
+      </c>
+      <c r="I12">
+        <v>0.0210852986954369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.00704768759293123</v>
+        <v>0.001491116283290066</v>
       </c>
       <c r="C13">
-        <v>-0.02794584055385825</v>
+        <v>-0.04423146187644173</v>
       </c>
       <c r="D13">
-        <v>-0.1567286269209769</v>
+        <v>0.1540252339789472</v>
       </c>
       <c r="E13">
-        <v>-0.02321978415626746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03835185988492303</v>
+      </c>
+      <c r="F13">
+        <v>-0.03310425870350153</v>
+      </c>
+      <c r="G13">
+        <v>-0.03449769700376604</v>
+      </c>
+      <c r="H13">
+        <v>-0.07421394955257933</v>
+      </c>
+      <c r="I13">
+        <v>-0.09180556806225618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.001700485814885907</v>
+        <v>-0.0005964984571344913</v>
       </c>
       <c r="C14">
-        <v>-0.02199519483144331</v>
+        <v>-0.02888977925968957</v>
       </c>
       <c r="D14">
-        <v>-0.1073571517597597</v>
+        <v>0.1044632218292013</v>
       </c>
       <c r="E14">
-        <v>-0.005661565495114823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.03216689538371846</v>
+      </c>
+      <c r="F14">
+        <v>-0.02255929199991687</v>
+      </c>
+      <c r="G14">
+        <v>-0.01272803796676331</v>
+      </c>
+      <c r="H14">
+        <v>-0.1202306795181815</v>
+      </c>
+      <c r="I14">
+        <v>-0.01628108133403569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001082083203397966</v>
+        <v>-0.001043202027839989</v>
       </c>
       <c r="C15">
-        <v>-0.01134414300750751</v>
+        <v>-0.01930985853625847</v>
       </c>
       <c r="D15">
-        <v>-0.02576309568908602</v>
+        <v>0.0523847536741081</v>
       </c>
       <c r="E15">
-        <v>0.006190017658428736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.005813529705273762</v>
+      </c>
+      <c r="F15">
+        <v>-0.002723104737860695</v>
+      </c>
+      <c r="G15">
+        <v>-0.02117106717531862</v>
+      </c>
+      <c r="H15">
+        <v>-0.01837085044343916</v>
+      </c>
+      <c r="I15">
+        <v>0.01777330202563115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02386275918290407</v>
+        <v>0.01039811928533863</v>
       </c>
       <c r="C16">
-        <v>-0.03834137777967687</v>
+        <v>-0.04854953132989252</v>
       </c>
       <c r="D16">
-        <v>-0.05926962876392673</v>
+        <v>0.0467692054882804</v>
       </c>
       <c r="E16">
-        <v>0.01139041553574997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02108905643516461</v>
+      </c>
+      <c r="F16">
+        <v>0.008243014212256676</v>
+      </c>
+      <c r="G16">
+        <v>0.0161879031834573</v>
+      </c>
+      <c r="H16">
+        <v>-0.05396370443122726</v>
+      </c>
+      <c r="I16">
+        <v>0.0318446993133236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.008353681481151811</v>
+        <v>0.0005746287405515825</v>
       </c>
       <c r="C19">
-        <v>-0.02520988803242899</v>
+        <v>-0.02309501916387636</v>
       </c>
       <c r="D19">
-        <v>-0.1234100439939985</v>
+        <v>0.07753451004197517</v>
       </c>
       <c r="E19">
-        <v>-0.04088391836132295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.02201173870426662</v>
+      </c>
+      <c r="F19">
+        <v>-0.00988622687807216</v>
+      </c>
+      <c r="G19">
+        <v>-0.02179194722156115</v>
+      </c>
+      <c r="H19">
+        <v>-0.07412247862594507</v>
+      </c>
+      <c r="I19">
+        <v>-0.04765394369827126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.006163065772186689</v>
+        <v>0.004801210384970597</v>
       </c>
       <c r="C20">
-        <v>-0.02793973148395191</v>
+        <v>-0.03912707072053829</v>
       </c>
       <c r="D20">
-        <v>-0.09531831733315449</v>
+        <v>0.09887674603183849</v>
       </c>
       <c r="E20">
-        <v>-0.03013178206360117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.008330840990090552</v>
+      </c>
+      <c r="F20">
+        <v>-0.02667343684176081</v>
+      </c>
+      <c r="G20">
+        <v>-0.001415221626701814</v>
+      </c>
+      <c r="H20">
+        <v>-0.0568846221000717</v>
+      </c>
+      <c r="I20">
+        <v>-0.003225833027656728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01015911631241617</v>
+        <v>0.004409159855523521</v>
       </c>
       <c r="C21">
-        <v>-0.03362881834339963</v>
+        <v>-0.04255454791691118</v>
       </c>
       <c r="D21">
-        <v>-0.1701036384258897</v>
+        <v>0.1353886877599072</v>
       </c>
       <c r="E21">
-        <v>-0.06157280286845997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0016050511749372</v>
+      </c>
+      <c r="F21">
+        <v>-0.07177721290650206</v>
+      </c>
+      <c r="G21">
+        <v>-0.02154116498398335</v>
+      </c>
+      <c r="H21">
+        <v>-0.1743571104480063</v>
+      </c>
+      <c r="I21">
+        <v>-0.1154612538832816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003507043085828364</v>
+        <v>-0.01043539914919329</v>
       </c>
       <c r="C22">
-        <v>-0.06185985991040323</v>
+        <v>-0.08026700102611077</v>
       </c>
       <c r="D22">
-        <v>-0.2051092940727114</v>
+        <v>0.2537667099916711</v>
       </c>
       <c r="E22">
-        <v>0.04409397727029168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04819340430258618</v>
+      </c>
+      <c r="F22">
+        <v>-0.02711670757593659</v>
+      </c>
+      <c r="G22">
+        <v>-0.331709491886048</v>
+      </c>
+      <c r="H22">
+        <v>0.4098070888962715</v>
+      </c>
+      <c r="I22">
+        <v>0.1292589387743873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003780304638774524</v>
+        <v>-0.009924969822752001</v>
       </c>
       <c r="C23">
-        <v>-0.0623251022218098</v>
+        <v>-0.08120072875052899</v>
       </c>
       <c r="D23">
-        <v>-0.2047089429708105</v>
+        <v>0.2543663239904297</v>
       </c>
       <c r="E23">
-        <v>0.0439183535143368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04511507458371092</v>
+      </c>
+      <c r="F23">
+        <v>-0.02647933360162588</v>
+      </c>
+      <c r="G23">
+        <v>-0.3304902629815396</v>
+      </c>
+      <c r="H23">
+        <v>0.4103189171628302</v>
+      </c>
+      <c r="I23">
+        <v>0.1311073379620246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03156367622457211</v>
+        <v>0.01057702895806978</v>
       </c>
       <c r="C24">
-        <v>-0.0555959860562034</v>
+        <v>-0.0655951814627163</v>
       </c>
       <c r="D24">
-        <v>-0.07213786879336763</v>
+        <v>0.05504633239391355</v>
       </c>
       <c r="E24">
-        <v>0.008985566759027071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02492986796063059</v>
+      </c>
+      <c r="F24">
+        <v>0.006410968698525261</v>
+      </c>
+      <c r="G24">
+        <v>0.008759807382111925</v>
+      </c>
+      <c r="H24">
+        <v>-0.07753248175648297</v>
+      </c>
+      <c r="I24">
+        <v>0.0318144903003711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03314184363680359</v>
+        <v>0.01391866440578873</v>
       </c>
       <c r="C25">
-        <v>-0.04691101145196268</v>
+        <v>-0.06072406966467642</v>
       </c>
       <c r="D25">
-        <v>-0.06463206162167941</v>
+        <v>0.05177840052877264</v>
       </c>
       <c r="E25">
-        <v>0.002873468248811613</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0103642649959442</v>
+      </c>
+      <c r="F25">
+        <v>0.007622620083033706</v>
+      </c>
+      <c r="G25">
+        <v>0.01397464598605655</v>
+      </c>
+      <c r="H25">
+        <v>-0.04594741543586774</v>
+      </c>
+      <c r="I25">
+        <v>0.02059176909123964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009148319845696726</v>
+        <v>0.007721732950851641</v>
       </c>
       <c r="C26">
-        <v>-0.0168594232621748</v>
+        <v>-0.02600380402155936</v>
       </c>
       <c r="D26">
-        <v>-0.08320112872131935</v>
+        <v>0.07092966091196116</v>
       </c>
       <c r="E26">
-        <v>-0.01417739607280599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02424925411720965</v>
+      </c>
+      <c r="F26">
+        <v>-0.02189703608973864</v>
+      </c>
+      <c r="G26">
+        <v>0.001822612479290516</v>
+      </c>
+      <c r="H26">
+        <v>-0.08548842376389269</v>
+      </c>
+      <c r="I26">
+        <v>-0.04850236329956625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.228617636290383</v>
+        <v>0.3193593970141909</v>
       </c>
       <c r="C28">
-        <v>0.2334215602794283</v>
+        <v>0.1150379654057272</v>
       </c>
       <c r="D28">
-        <v>-0.02493970626447679</v>
+        <v>-0.008925620202977555</v>
       </c>
       <c r="E28">
-        <v>-0.06745775462246648</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0507837828930684</v>
+      </c>
+      <c r="F28">
+        <v>-0.03654214167498578</v>
+      </c>
+      <c r="G28">
+        <v>-0.02421051480608863</v>
+      </c>
+      <c r="H28">
+        <v>0.02004978637119046</v>
+      </c>
+      <c r="I28">
+        <v>-0.1379711952316098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.00208030204725525</v>
+        <v>-0.0005754583252874313</v>
       </c>
       <c r="C29">
-        <v>-0.02347920741284815</v>
+        <v>-0.03026477405559528</v>
       </c>
       <c r="D29">
-        <v>-0.1015209074919051</v>
+        <v>0.09791723419544955</v>
       </c>
       <c r="E29">
-        <v>-0.008583077760620998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.04278225597262722</v>
+      </c>
+      <c r="F29">
+        <v>-0.02842586371471562</v>
+      </c>
+      <c r="G29">
+        <v>0.0004073160967282194</v>
+      </c>
+      <c r="H29">
+        <v>-0.1217954438422972</v>
+      </c>
+      <c r="I29">
+        <v>-0.01770755335647944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.03065830909334994</v>
+        <v>0.01796883974782279</v>
       </c>
       <c r="C30">
-        <v>-0.0594378156350357</v>
+        <v>-0.08437796441831361</v>
       </c>
       <c r="D30">
-        <v>-0.168138352893457</v>
+        <v>0.1634862451815657</v>
       </c>
       <c r="E30">
-        <v>-0.0144503656655824</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03979210654950832</v>
+      </c>
+      <c r="F30">
+        <v>-0.03578606942035301</v>
+      </c>
+      <c r="G30">
+        <v>-0.03612581141572136</v>
+      </c>
+      <c r="H30">
+        <v>-0.05116694287057068</v>
+      </c>
+      <c r="I30">
+        <v>0.06393246182919893</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05009049191832474</v>
+        <v>0.01147442951729446</v>
       </c>
       <c r="C31">
-        <v>-0.08324610437798145</v>
+        <v>-0.09321084538834087</v>
       </c>
       <c r="D31">
-        <v>-0.07236243406782171</v>
+        <v>0.04249114499373735</v>
       </c>
       <c r="E31">
-        <v>-0.009310487610743297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008533798089624</v>
+      </c>
+      <c r="F31">
+        <v>-0.01211734730645817</v>
+      </c>
+      <c r="G31">
+        <v>-0.006920539352506343</v>
+      </c>
+      <c r="H31">
+        <v>-0.04814744959870287</v>
+      </c>
+      <c r="I31">
+        <v>-0.07442816695883638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0209614505114905</v>
+        <v>0.009754265204230884</v>
       </c>
       <c r="C32">
-        <v>-0.03627016837726268</v>
+        <v>-0.04495165956788681</v>
       </c>
       <c r="D32">
-        <v>-0.1087506307643792</v>
+        <v>0.1130092193618686</v>
       </c>
       <c r="E32">
-        <v>-0.06011745896849126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.004489431715067758</v>
+      </c>
+      <c r="F32">
+        <v>-0.0443402672313408</v>
+      </c>
+      <c r="G32">
+        <v>-0.02772024989394715</v>
+      </c>
+      <c r="H32">
+        <v>-0.03810738647076699</v>
+      </c>
+      <c r="I32">
+        <v>-0.07928189020004306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01794978430355671</v>
+        <v>0.008137913653337325</v>
       </c>
       <c r="C33">
-        <v>-0.04309333164141022</v>
+        <v>-0.05721871748593176</v>
       </c>
       <c r="D33">
-        <v>-0.152368632271802</v>
+        <v>0.1292999367938279</v>
       </c>
       <c r="E33">
-        <v>-0.03453837493460073</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01427202326070831</v>
+      </c>
+      <c r="F33">
+        <v>-0.02674280518638021</v>
+      </c>
+      <c r="G33">
+        <v>-0.01217777785530892</v>
+      </c>
+      <c r="H33">
+        <v>-0.07100309235269274</v>
+      </c>
+      <c r="I33">
+        <v>-0.01907931908723523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02835516949184202</v>
+        <v>0.006824698597613948</v>
       </c>
       <c r="C34">
-        <v>-0.05752420881703984</v>
+        <v>-0.06235097680562209</v>
       </c>
       <c r="D34">
-        <v>-0.05173283110794905</v>
+        <v>0.03337790550644335</v>
       </c>
       <c r="E34">
-        <v>0.04917454242019788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02823889631992776</v>
+      </c>
+      <c r="F34">
+        <v>0.03549957279027417</v>
+      </c>
+      <c r="G34">
+        <v>0.008183149818230789</v>
+      </c>
+      <c r="H34">
+        <v>-0.06159424384098362</v>
+      </c>
+      <c r="I34">
+        <v>0.008979079842397604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0006088423749299931</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.00464237059698658</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01570872304178044</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004228822110672133</v>
+      </c>
+      <c r="F35">
+        <v>-0.001457576812746287</v>
+      </c>
+      <c r="G35">
+        <v>0.003152572858717406</v>
+      </c>
+      <c r="H35">
+        <v>-0.01315450863856237</v>
+      </c>
+      <c r="I35">
+        <v>0.006222009611910653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009082787642572978</v>
+        <v>0.008774789296566892</v>
       </c>
       <c r="C36">
-        <v>-0.007844354890718231</v>
+        <v>-0.01995523060958668</v>
       </c>
       <c r="D36">
-        <v>-0.0961439953711008</v>
+        <v>0.07960590521767562</v>
       </c>
       <c r="E36">
-        <v>-0.03785541740460802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.007116661516580582</v>
+      </c>
+      <c r="F36">
+        <v>-0.03513100090335976</v>
+      </c>
+      <c r="G36">
+        <v>-0.003643231677843414</v>
+      </c>
+      <c r="H36">
+        <v>-0.06190041003324338</v>
+      </c>
+      <c r="I36">
+        <v>-0.03343734776923128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007993018778550208</v>
+        <v>0.01513893403167361</v>
       </c>
       <c r="C38">
-        <v>-0.007959300832353971</v>
+        <v>-0.01539906076234517</v>
       </c>
       <c r="D38">
-        <v>-0.0899987014141345</v>
+        <v>0.0846361052822196</v>
       </c>
       <c r="E38">
-        <v>-0.007040246092303609</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01024636688559157</v>
+      </c>
+      <c r="F38">
+        <v>0.00805654582225915</v>
+      </c>
+      <c r="G38">
+        <v>-0.02462520292098031</v>
+      </c>
+      <c r="H38">
+        <v>-0.05351523745305459</v>
+      </c>
+      <c r="I38">
+        <v>-0.03598223152948604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02432747950039761</v>
+        <v>0.006826338972142096</v>
       </c>
       <c r="C39">
-        <v>-0.05707896184896272</v>
+        <v>-0.07565407603114403</v>
       </c>
       <c r="D39">
-        <v>-0.1186364331005325</v>
+        <v>0.1077294176034914</v>
       </c>
       <c r="E39">
-        <v>0.02359478891124804</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04877268793278847</v>
+      </c>
+      <c r="F39">
+        <v>0.005574679821689361</v>
+      </c>
+      <c r="G39">
+        <v>0.01011973982536564</v>
+      </c>
+      <c r="H39">
+        <v>-0.1027234156738599</v>
+      </c>
+      <c r="I39">
+        <v>0.06426167920192706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01293076068901668</v>
+        <v>0.01172585493729015</v>
       </c>
       <c r="C40">
-        <v>-0.01821049070104547</v>
+        <v>-0.02648421493696335</v>
       </c>
       <c r="D40">
-        <v>-0.1161345018179361</v>
+        <v>0.09672827403706549</v>
       </c>
       <c r="E40">
-        <v>0.02779649747654231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04323983132261606</v>
+      </c>
+      <c r="F40">
+        <v>0.0269256671957512</v>
+      </c>
+      <c r="G40">
+        <v>-0.06749501179304718</v>
+      </c>
+      <c r="H40">
+        <v>-0.06957715238684092</v>
+      </c>
+      <c r="I40">
+        <v>-0.06148549324335657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01303809063284765</v>
+        <v>0.01193738780871781</v>
       </c>
       <c r="C41">
-        <v>-0.009395429827349356</v>
+        <v>-0.01745589182849093</v>
       </c>
       <c r="D41">
-        <v>-0.06312825971363739</v>
+        <v>0.04384222406337426</v>
       </c>
       <c r="E41">
-        <v>-0.0318071360786415</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02196128178131637</v>
+      </c>
+      <c r="F41">
+        <v>-0.01724682758771634</v>
+      </c>
+      <c r="G41">
+        <v>-0.01685534203741394</v>
+      </c>
+      <c r="H41">
+        <v>-0.04715228769960805</v>
+      </c>
+      <c r="I41">
+        <v>-0.05030530750889729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008178741640407421</v>
+        <v>0.005836906778405943</v>
       </c>
       <c r="C43">
-        <v>-0.01427465453666578</v>
+        <v>-0.01921717379519244</v>
       </c>
       <c r="D43">
-        <v>-0.07960784292052772</v>
+        <v>0.05678373529222997</v>
       </c>
       <c r="E43">
-        <v>-0.020765219790809</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.005200703296985537</v>
+      </c>
+      <c r="F43">
+        <v>-0.01477077796345995</v>
+      </c>
+      <c r="G43">
+        <v>-0.01877058198439521</v>
+      </c>
+      <c r="H43">
+        <v>-0.07330468991170774</v>
+      </c>
+      <c r="I43">
+        <v>-0.03974011957896519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01880314137405295</v>
+        <v>0.01225330853678481</v>
       </c>
       <c r="C44">
-        <v>-0.02706839423601481</v>
+        <v>-0.04581455553543386</v>
       </c>
       <c r="D44">
-        <v>-0.1171954017322745</v>
+        <v>0.1195518367955804</v>
       </c>
       <c r="E44">
-        <v>-0.03845911608488461</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0226924243390019</v>
+      </c>
+      <c r="F44">
+        <v>-0.02631953867290037</v>
+      </c>
+      <c r="G44">
+        <v>-0.01944417039441281</v>
+      </c>
+      <c r="H44">
+        <v>-0.04329890457101399</v>
+      </c>
+      <c r="I44">
+        <v>0.05403578258207942</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01147832800648147</v>
+        <v>-0.0005349962103947769</v>
       </c>
       <c r="C46">
-        <v>-0.02993982509733761</v>
+        <v>-0.04076256806453855</v>
       </c>
       <c r="D46">
-        <v>-0.10000117463799</v>
+        <v>0.08436918612620474</v>
       </c>
       <c r="E46">
-        <v>-0.01598721538219564</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02470092328077807</v>
+      </c>
+      <c r="F46">
+        <v>-0.0269060780930995</v>
+      </c>
+      <c r="G46">
+        <v>-0.01782853039793774</v>
+      </c>
+      <c r="H46">
+        <v>-0.1357153728148607</v>
+      </c>
+      <c r="I46">
+        <v>-0.02473696389112211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0930954518774318</v>
+        <v>0.03850261610483223</v>
       </c>
       <c r="C47">
-        <v>-0.09861030994798346</v>
+        <v>-0.1230912045253885</v>
       </c>
       <c r="D47">
-        <v>-0.06042766936431693</v>
+        <v>0.02409071418705288</v>
       </c>
       <c r="E47">
-        <v>-0.02385219955337364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01926749749487137</v>
+      </c>
+      <c r="F47">
+        <v>0.01338262411011271</v>
+      </c>
+      <c r="G47">
+        <v>0.04492736075450217</v>
+      </c>
+      <c r="H47">
+        <v>-0.04048004499512303</v>
+      </c>
+      <c r="I47">
+        <v>-0.1374773204623344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006644238568715967</v>
+        <v>0.006978664487144365</v>
       </c>
       <c r="C48">
-        <v>-0.01777238482292964</v>
+        <v>-0.02823610252732261</v>
       </c>
       <c r="D48">
-        <v>-0.09779981978049841</v>
+        <v>0.08313362692249771</v>
       </c>
       <c r="E48">
-        <v>-0.05025315644496452</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004626757767078069</v>
+      </c>
+      <c r="F48">
+        <v>-0.03874110464040262</v>
+      </c>
+      <c r="G48">
+        <v>-0.01023715083504072</v>
+      </c>
+      <c r="H48">
+        <v>-0.09086105639097203</v>
+      </c>
+      <c r="I48">
+        <v>-0.0218994218445645</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04628976829688942</v>
+        <v>0.01406601803994772</v>
       </c>
       <c r="C50">
-        <v>-0.06060238028149386</v>
+        <v>-0.0756677492989222</v>
       </c>
       <c r="D50">
-        <v>-0.07092441138105686</v>
+        <v>0.04696181837096047</v>
       </c>
       <c r="E50">
-        <v>-0.005985750863665193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>1.529737435120689e-06</v>
+      </c>
+      <c r="F50">
+        <v>-0.007577590870003336</v>
+      </c>
+      <c r="G50">
+        <v>-0.02871628875506287</v>
+      </c>
+      <c r="H50">
+        <v>-0.03712028349569953</v>
+      </c>
+      <c r="I50">
+        <v>-0.129362809736505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004290713985661518</v>
+        <v>0.002831503117139451</v>
       </c>
       <c r="C51">
-        <v>-0.004476555192436392</v>
+        <v>-0.01660557798719607</v>
       </c>
       <c r="D51">
-        <v>-0.06271346406906199</v>
+        <v>0.06882004820227779</v>
       </c>
       <c r="E51">
-        <v>-0.001517279439231327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03613573442027811</v>
+      </c>
+      <c r="F51">
+        <v>-0.03740956737921012</v>
+      </c>
+      <c r="G51">
+        <v>-0.03950901371898227</v>
+      </c>
+      <c r="H51">
+        <v>-0.04712951415969637</v>
+      </c>
+      <c r="I51">
+        <v>-0.0118916570392729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.119638820568918</v>
+        <v>0.06210743688840346</v>
       </c>
       <c r="C53">
-        <v>-0.1123040886424767</v>
+        <v>-0.1557634361884685</v>
       </c>
       <c r="D53">
-        <v>-0.02044656570313973</v>
+        <v>-0.01359830309419864</v>
       </c>
       <c r="E53">
-        <v>-0.05583628198041185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03448395078862449</v>
+      </c>
+      <c r="F53">
+        <v>-0.04761909378810454</v>
+      </c>
+      <c r="G53">
+        <v>-0.01041402215743942</v>
+      </c>
+      <c r="H53">
+        <v>-0.002681602821748606</v>
+      </c>
+      <c r="I53">
+        <v>-0.08554308006021696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01979554604484079</v>
+        <v>0.01115174933652616</v>
       </c>
       <c r="C54">
-        <v>-0.02350849496431108</v>
+        <v>-0.04098858192241629</v>
       </c>
       <c r="D54">
-        <v>-0.1078957316869812</v>
+        <v>0.08424684392436628</v>
       </c>
       <c r="E54">
-        <v>0.0006711012581968965</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.009602031780014104</v>
+      </c>
+      <c r="F54">
+        <v>0.00241312532549464</v>
+      </c>
+      <c r="G54">
+        <v>-0.02896355061037834</v>
+      </c>
+      <c r="H54">
+        <v>-0.09452713606361024</v>
+      </c>
+      <c r="I54">
+        <v>-0.05300654338737201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1056575615423102</v>
+        <v>0.04976835891842188</v>
       </c>
       <c r="C55">
-        <v>-0.09401032483609767</v>
+        <v>-0.1269565510941889</v>
       </c>
       <c r="D55">
-        <v>-0.006349437597817181</v>
+        <v>-0.02722457572463424</v>
       </c>
       <c r="E55">
-        <v>-0.01365597213603091</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0007423964820345554</v>
+      </c>
+      <c r="F55">
+        <v>-0.01509749777262867</v>
+      </c>
+      <c r="G55">
+        <v>-0.01943267662530193</v>
+      </c>
+      <c r="H55">
+        <v>-0.01006155455458849</v>
+      </c>
+      <c r="I55">
+        <v>-0.08812656740382095</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1474659430822831</v>
+        <v>0.06863882040344946</v>
       </c>
       <c r="C56">
-        <v>-0.1240446700511656</v>
+        <v>-0.1845185834672667</v>
       </c>
       <c r="D56">
-        <v>-0.006597368580026401</v>
+        <v>-0.02410969123895799</v>
       </c>
       <c r="E56">
-        <v>-0.01469094737142078</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03340486443738683</v>
+      </c>
+      <c r="F56">
+        <v>-0.01428660339388656</v>
+      </c>
+      <c r="G56">
+        <v>-0.06322336602771679</v>
+      </c>
+      <c r="H56">
+        <v>0.006335786398862127</v>
+      </c>
+      <c r="I56">
+        <v>-0.1093927908783128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.002892873542898804</v>
+        <v>0.006280236199692366</v>
       </c>
       <c r="C58">
-        <v>-0.01673750702537742</v>
+        <v>-0.04926105819134673</v>
       </c>
       <c r="D58">
-        <v>-0.2308253212546826</v>
+        <v>0.2874886251823793</v>
       </c>
       <c r="E58">
-        <v>-0.06961271222190904</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01848787439793781</v>
+      </c>
+      <c r="F58">
+        <v>-0.09189963240012974</v>
+      </c>
+      <c r="G58">
+        <v>-0.1195318498207355</v>
+      </c>
+      <c r="H58">
+        <v>0.1052838300549762</v>
+      </c>
+      <c r="I58">
+        <v>0.05789608206572545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1590769977886034</v>
+        <v>0.2455527227584023</v>
       </c>
       <c r="C59">
-        <v>0.1707792528195047</v>
+        <v>0.08126379927417136</v>
       </c>
       <c r="D59">
-        <v>-0.05248621166644861</v>
+        <v>0.05978747575997948</v>
       </c>
       <c r="E59">
-        <v>-0.03596768161904819</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02992716206092549</v>
+      </c>
+      <c r="F59">
+        <v>-0.01475318292605742</v>
+      </c>
+      <c r="G59">
+        <v>0.002571938712443134</v>
+      </c>
+      <c r="H59">
+        <v>0.01937929395713832</v>
+      </c>
+      <c r="I59">
+        <v>-0.02771718897915618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2029182614366013</v>
+        <v>0.1558180507672986</v>
       </c>
       <c r="C60">
-        <v>-0.08219025209924115</v>
+        <v>-0.1681653792202438</v>
       </c>
       <c r="D60">
-        <v>-0.1471789837529868</v>
+        <v>0.07744280104683221</v>
       </c>
       <c r="E60">
-        <v>0.1931935427851702</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2252709616662225</v>
+      </c>
+      <c r="F60">
+        <v>0.1631273705352314</v>
+      </c>
+      <c r="G60">
+        <v>0.2278301961190349</v>
+      </c>
+      <c r="H60">
+        <v>0.1914921933712511</v>
+      </c>
+      <c r="I60">
+        <v>0.03984839059079802</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03501612795487578</v>
+        <v>0.01437487392362314</v>
       </c>
       <c r="C61">
-        <v>-0.05233641919809009</v>
+        <v>-0.0715147521668846</v>
       </c>
       <c r="D61">
-        <v>-0.1092353700475956</v>
+        <v>0.08466606017836616</v>
       </c>
       <c r="E61">
-        <v>0.01024009047379266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03477139529429382</v>
+      </c>
+      <c r="F61">
+        <v>0.01368569819763739</v>
+      </c>
+      <c r="G61">
+        <v>0.02373262029970801</v>
+      </c>
+      <c r="H61">
+        <v>-0.09725303786364661</v>
+      </c>
+      <c r="I61">
+        <v>0.01741990824291652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01137148408906435</v>
+        <v>0.002788393965195383</v>
       </c>
       <c r="C63">
-        <v>-0.02609906459747587</v>
+        <v>-0.03624541771217534</v>
       </c>
       <c r="D63">
-        <v>-0.09613520956584881</v>
+        <v>0.07250087871968347</v>
       </c>
       <c r="E63">
-        <v>-0.009962720604538769</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02810442938029256</v>
+      </c>
+      <c r="F63">
+        <v>-0.02194500904505178</v>
+      </c>
+      <c r="G63">
+        <v>-0.01140365271818995</v>
+      </c>
+      <c r="H63">
+        <v>-0.06326876988727372</v>
+      </c>
+      <c r="I63">
+        <v>-0.006470531217661383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06708148938050647</v>
+        <v>0.0232625212703768</v>
       </c>
       <c r="C64">
-        <v>-0.07938279180134823</v>
+        <v>-0.1049952299852735</v>
       </c>
       <c r="D64">
-        <v>-0.04225620298363088</v>
+        <v>0.02922491624409915</v>
       </c>
       <c r="E64">
-        <v>-0.01864280598219806</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02902474984328511</v>
+      </c>
+      <c r="F64">
+        <v>-0.02324091251420576</v>
+      </c>
+      <c r="G64">
+        <v>0.04799029289082699</v>
+      </c>
+      <c r="H64">
+        <v>-0.1141132290591342</v>
+      </c>
+      <c r="I64">
+        <v>0.060133309134523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02904477137610631</v>
+        <v>0.02432612402691385</v>
       </c>
       <c r="C65">
-        <v>-0.0150281736679195</v>
+        <v>-0.03899301662376731</v>
       </c>
       <c r="D65">
-        <v>-0.1207685171817153</v>
+        <v>0.1188707086026446</v>
       </c>
       <c r="E65">
-        <v>0.0007485317512885233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04647967530265578</v>
+      </c>
+      <c r="F65">
+        <v>-0.004798213828319838</v>
+      </c>
+      <c r="G65">
+        <v>0.01587339192702934</v>
+      </c>
+      <c r="H65">
+        <v>-0.05031231814419472</v>
+      </c>
+      <c r="I65">
+        <v>-0.003110221827363868</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02785238214097545</v>
+        <v>0.004999285311237237</v>
       </c>
       <c r="C66">
-        <v>-0.06384853146225621</v>
+        <v>-0.09078948803236711</v>
       </c>
       <c r="D66">
-        <v>-0.1226537139345277</v>
+        <v>0.1308569806524905</v>
       </c>
       <c r="E66">
-        <v>0.02823129153972217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03568572036794929</v>
+      </c>
+      <c r="F66">
+        <v>0.01428140856689149</v>
+      </c>
+      <c r="G66">
+        <v>-0.002363382535570562</v>
+      </c>
+      <c r="H66">
+        <v>-0.05628974436383153</v>
+      </c>
+      <c r="I66">
+        <v>0.06971649181956885</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02861149917269896</v>
+        <v>0.02589604145908861</v>
       </c>
       <c r="C67">
-        <v>-0.01778995609429703</v>
+        <v>-0.02769814548969902</v>
       </c>
       <c r="D67">
-        <v>-0.0459560841721288</v>
+        <v>0.03480598592466561</v>
       </c>
       <c r="E67">
-        <v>0.01663497048665246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004552404888878172</v>
+      </c>
+      <c r="F67">
+        <v>0.02992634932332526</v>
+      </c>
+      <c r="G67">
+        <v>-0.01174407752117351</v>
+      </c>
+      <c r="H67">
+        <v>-0.06392233977755286</v>
+      </c>
+      <c r="I67">
+        <v>-0.02502715944093921</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1832930284755317</v>
+        <v>0.2647929933459257</v>
       </c>
       <c r="C68">
-        <v>0.1822120754490332</v>
+        <v>0.08005574805609661</v>
       </c>
       <c r="D68">
-        <v>-0.03349417155649604</v>
+        <v>0.03533110282725206</v>
       </c>
       <c r="E68">
-        <v>-0.01338319051557333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005924563602488745</v>
+      </c>
+      <c r="F68">
+        <v>-0.02926526906350958</v>
+      </c>
+      <c r="G68">
+        <v>-0.06294137943175036</v>
+      </c>
+      <c r="H68">
+        <v>0.04245919776893986</v>
+      </c>
+      <c r="I68">
+        <v>-0.09663180483354182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07227054235062545</v>
+        <v>0.02408452184518768</v>
       </c>
       <c r="C69">
-        <v>-0.1113747845604478</v>
+        <v>-0.1207258394864942</v>
       </c>
       <c r="D69">
-        <v>-0.08326920834475525</v>
+        <v>0.03753623919754295</v>
       </c>
       <c r="E69">
-        <v>-0.008739034204291184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.003083957613801812</v>
+      </c>
+      <c r="F69">
+        <v>0.01499839601119242</v>
+      </c>
+      <c r="G69">
+        <v>0.03060546062820467</v>
+      </c>
+      <c r="H69">
+        <v>-0.04293232810228444</v>
+      </c>
+      <c r="I69">
+        <v>-0.09240586442151322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1894173704508431</v>
+        <v>0.2664788305451209</v>
       </c>
       <c r="C71">
-        <v>0.2008633173437223</v>
+        <v>0.09479558628976366</v>
       </c>
       <c r="D71">
-        <v>-0.0299586519759379</v>
+        <v>0.02141891635587145</v>
       </c>
       <c r="E71">
-        <v>-0.01502931889233378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.008920091936115634</v>
+      </c>
+      <c r="F71">
+        <v>-0.0157767538559265</v>
+      </c>
+      <c r="G71">
+        <v>-0.04132994518108336</v>
+      </c>
+      <c r="H71">
+        <v>-0.01402285473169876</v>
+      </c>
+      <c r="I71">
+        <v>-0.1683943690279732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1146009192608433</v>
+        <v>0.06301213397008679</v>
       </c>
       <c r="C72">
-        <v>-0.06384353360613283</v>
+        <v>-0.1222887148304166</v>
       </c>
       <c r="D72">
-        <v>-0.09654453817146731</v>
+        <v>0.06292110512000153</v>
       </c>
       <c r="E72">
-        <v>0.051776878701477</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08706954935801506</v>
+      </c>
+      <c r="F72">
+        <v>0.01578667410227749</v>
+      </c>
+      <c r="G72">
+        <v>0.02262326054950758</v>
+      </c>
+      <c r="H72">
+        <v>-0.06219594900948738</v>
+      </c>
+      <c r="I72">
+        <v>0.03794800759787811</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1844728436448287</v>
+        <v>0.1433019999507693</v>
       </c>
       <c r="C73">
-        <v>-0.04260204380777788</v>
+        <v>-0.1343978051499487</v>
       </c>
       <c r="D73">
-        <v>-0.209740598832076</v>
+        <v>0.08783818573899102</v>
       </c>
       <c r="E73">
-        <v>0.2947518821493075</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3810264133146262</v>
+      </c>
+      <c r="F73">
+        <v>0.2469015613911706</v>
+      </c>
+      <c r="G73">
+        <v>0.440392489878706</v>
+      </c>
+      <c r="H73">
+        <v>0.1511115299928833</v>
+      </c>
+      <c r="I73">
+        <v>0.07279685430997523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1186499703966763</v>
+        <v>0.05718825493024554</v>
       </c>
       <c r="C74">
-        <v>-0.101442033342583</v>
+        <v>-0.1433656188887534</v>
       </c>
       <c r="D74">
-        <v>0.02162774575103518</v>
+        <v>-0.04253615340072842</v>
       </c>
       <c r="E74">
-        <v>-0.0427394792700265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01414545173412493</v>
+      </c>
+      <c r="F74">
+        <v>-0.0443994315755668</v>
+      </c>
+      <c r="G74">
+        <v>-0.009056867408744586</v>
+      </c>
+      <c r="H74">
+        <v>0.01088019112333796</v>
+      </c>
+      <c r="I74">
+        <v>-0.1128048647840672</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2551844194337266</v>
+        <v>0.1281162616956971</v>
       </c>
       <c r="C75">
-        <v>-0.1721069683378586</v>
+        <v>-0.2651907416233267</v>
       </c>
       <c r="D75">
-        <v>0.1027404707670537</v>
+        <v>-0.1341291573981456</v>
       </c>
       <c r="E75">
-        <v>0.007443926391145964</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08765990297158541</v>
+      </c>
+      <c r="F75">
+        <v>0.03829527694370209</v>
+      </c>
+      <c r="G75">
+        <v>-0.101906219324482</v>
+      </c>
+      <c r="H75">
+        <v>0.006592377411652812</v>
+      </c>
+      <c r="I75">
+        <v>-0.08950907620440442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1560524147648207</v>
+        <v>0.07365545533476264</v>
       </c>
       <c r="C76">
-        <v>-0.1240828039703195</v>
+        <v>-0.182220685543498</v>
       </c>
       <c r="D76">
-        <v>-0.01982980364910994</v>
+        <v>-0.03227599209285225</v>
       </c>
       <c r="E76">
-        <v>-0.01303143620757431</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02844968882820555</v>
+      </c>
+      <c r="F76">
+        <v>-0.004039479788874605</v>
+      </c>
+      <c r="G76">
+        <v>-0.0540147399386056</v>
+      </c>
+      <c r="H76">
+        <v>-0.03301316625192179</v>
+      </c>
+      <c r="I76">
+        <v>-0.1142765856006032</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02525484323725449</v>
+        <v>0.03041642633734301</v>
       </c>
       <c r="C77">
-        <v>-0.08082139696462981</v>
+        <v>-0.09363356437247122</v>
       </c>
       <c r="D77">
-        <v>-0.08700623845984305</v>
+        <v>0.2626467050976621</v>
       </c>
       <c r="E77">
-        <v>-0.215808681020438</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7646479824978824</v>
+      </c>
+      <c r="F77">
+        <v>0.3192211353453699</v>
+      </c>
+      <c r="G77">
+        <v>0.3077904181077876</v>
+      </c>
+      <c r="H77">
+        <v>0.2384290448820567</v>
+      </c>
+      <c r="I77">
+        <v>-0.03810990380305052</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03188290592255814</v>
+        <v>0.01678729484680693</v>
       </c>
       <c r="C78">
-        <v>-0.06777494038292697</v>
+        <v>-0.08630240763018786</v>
       </c>
       <c r="D78">
-        <v>-0.1525429773105021</v>
+        <v>0.1386106509921206</v>
       </c>
       <c r="E78">
-        <v>-0.03213366394545672</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04457983379040665</v>
+      </c>
+      <c r="F78">
+        <v>-0.04769762175102436</v>
+      </c>
+      <c r="G78">
+        <v>-0.03947809845140067</v>
+      </c>
+      <c r="H78">
+        <v>-0.01614777588911624</v>
+      </c>
+      <c r="I78">
+        <v>-0.05311098113451081</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1038273399134448</v>
+        <v>0.04210368748593289</v>
       </c>
       <c r="C79">
-        <v>-0.1520364797724566</v>
+        <v>-0.17946205965179</v>
       </c>
       <c r="D79">
-        <v>0.09668730804896594</v>
+        <v>-0.06960773158387293</v>
       </c>
       <c r="E79">
-        <v>-0.7909576007912069</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1080739236003074</v>
+      </c>
+      <c r="F79">
+        <v>-0.8114344391046716</v>
+      </c>
+      <c r="G79">
+        <v>0.3922502040157182</v>
+      </c>
+      <c r="H79">
+        <v>0.2086791788052162</v>
+      </c>
+      <c r="I79">
+        <v>0.1440133795881536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.008449413220701557</v>
+        <v>0.0003110351382264738</v>
       </c>
       <c r="C80">
-        <v>-0.04744357303333738</v>
+        <v>-0.04733481473494947</v>
       </c>
       <c r="D80">
-        <v>-0.0465147322066486</v>
+        <v>0.04404822643166713</v>
       </c>
       <c r="E80">
-        <v>0.005272274653445773</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02380273781149233</v>
+      </c>
+      <c r="F80">
+        <v>-0.008789702706432215</v>
+      </c>
+      <c r="G80">
+        <v>-0.03288097397548709</v>
+      </c>
+      <c r="H80">
+        <v>-0.01818256585926201</v>
+      </c>
+      <c r="I80">
+        <v>-0.05546172409215727</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1337784375875764</v>
+        <v>0.05530526312671995</v>
       </c>
       <c r="C81">
-        <v>-0.1199474136199563</v>
+        <v>-0.1647730699109167</v>
       </c>
       <c r="D81">
-        <v>0.06039142143656068</v>
+        <v>-0.07714418385249211</v>
       </c>
       <c r="E81">
-        <v>-0.07095432969324021</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07036021567631424</v>
+      </c>
+      <c r="F81">
+        <v>-0.04380494553623895</v>
+      </c>
+      <c r="G81">
+        <v>-0.05126682126937144</v>
+      </c>
+      <c r="H81">
+        <v>-0.06053770685261874</v>
+      </c>
+      <c r="I81">
+        <v>-0.13347275628357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2828051533803624</v>
+        <v>0.1128128096904567</v>
       </c>
       <c r="C82">
-        <v>-0.2644224631878062</v>
+        <v>-0.3273971561967235</v>
       </c>
       <c r="D82">
-        <v>0.2082452836910638</v>
+        <v>-0.2267671599757239</v>
       </c>
       <c r="E82">
-        <v>0.1142566818906927</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04570921415792415</v>
+      </c>
+      <c r="F82">
+        <v>0.1277958791689078</v>
+      </c>
+      <c r="G82">
+        <v>-0.07450530485061774</v>
+      </c>
+      <c r="H82">
+        <v>-0.09657460406928058</v>
+      </c>
+      <c r="I82">
+        <v>-0.04820809896069544</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.00144490488751188</v>
+        <v>-0.008199206621288846</v>
       </c>
       <c r="C83">
-        <v>-0.05624496763478547</v>
+        <v>-0.0355565996561349</v>
       </c>
       <c r="D83">
-        <v>-0.02765557720801909</v>
+        <v>0.04568874751968318</v>
       </c>
       <c r="E83">
-        <v>-0.05894106993918964</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09116150640283764</v>
+      </c>
+      <c r="F83">
+        <v>-0.02867688240242617</v>
+      </c>
+      <c r="G83">
+        <v>-0.04232209942926452</v>
+      </c>
+      <c r="H83">
+        <v>-0.03369320712993774</v>
+      </c>
+      <c r="I83">
+        <v>-0.09651486663511859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0001832512586328418</v>
+        <v>-0.001593534417937135</v>
       </c>
       <c r="C84">
-        <v>-9.308196125603775e-05</v>
+        <v>-0.01591242245274777</v>
       </c>
       <c r="D84">
-        <v>-0.0008643037225485173</v>
+        <v>0.03938309092455</v>
       </c>
       <c r="E84">
-        <v>-0.0004408880255799777</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.008845336443416497</v>
+      </c>
+      <c r="F84">
+        <v>-0.01470896611169589</v>
+      </c>
+      <c r="G84">
+        <v>-0.04649728479855687</v>
+      </c>
+      <c r="H84">
+        <v>0.006039337496380596</v>
+      </c>
+      <c r="I84">
+        <v>0.03250735818602683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1573484482903703</v>
+        <v>0.07002614040035524</v>
       </c>
       <c r="C85">
-        <v>-0.125258622418623</v>
+        <v>-0.1840973284596135</v>
       </c>
       <c r="D85">
-        <v>0.04378750749894923</v>
+        <v>-0.09130113178339501</v>
       </c>
       <c r="E85">
-        <v>-0.02643514856318787</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.002471338766852349</v>
+      </c>
+      <c r="F85">
+        <v>-0.0754847427262732</v>
+      </c>
+      <c r="G85">
+        <v>-0.03354434929235398</v>
+      </c>
+      <c r="H85">
+        <v>-0.00539984566680864</v>
+      </c>
+      <c r="I85">
+        <v>-0.09251620710022367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01336880639331747</v>
+        <v>0.01123365061440283</v>
       </c>
       <c r="C86">
-        <v>-0.01534309807017013</v>
+        <v>-0.03000331800467797</v>
       </c>
       <c r="D86">
-        <v>-0.08897971437195931</v>
+        <v>0.110610838973067</v>
       </c>
       <c r="E86">
-        <v>-0.04836444390745816</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04229481407492419</v>
+      </c>
+      <c r="F86">
+        <v>0.01093194175760223</v>
+      </c>
+      <c r="G86">
+        <v>0.02141002079424818</v>
+      </c>
+      <c r="H86">
+        <v>-0.004673626995920476</v>
+      </c>
+      <c r="I86">
+        <v>-0.09551985474821333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01716053419299741</v>
+        <v>0.01078598580247419</v>
       </c>
       <c r="C87">
-        <v>-0.02913276624074822</v>
+        <v>-0.05517780091831631</v>
       </c>
       <c r="D87">
-        <v>-0.1279352611739052</v>
+        <v>0.1455041719054566</v>
       </c>
       <c r="E87">
-        <v>-0.04003833694868109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.00601304022015794</v>
+      </c>
+      <c r="F87">
+        <v>-0.03799038430878766</v>
+      </c>
+      <c r="G87">
+        <v>-0.06407092902100731</v>
+      </c>
+      <c r="H87">
+        <v>-0.01551323235751921</v>
+      </c>
+      <c r="I87">
+        <v>0.03893599652922819</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06190711384743566</v>
+        <v>0.03165358710989202</v>
       </c>
       <c r="C88">
-        <v>-0.04576282722294885</v>
+        <v>-0.06976775164682331</v>
       </c>
       <c r="D88">
-        <v>-0.04121803515844715</v>
+        <v>0.01032504254792009</v>
       </c>
       <c r="E88">
-        <v>-0.03138822103098408</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01388282977017358</v>
+      </c>
+      <c r="F88">
+        <v>-0.02391223175458269</v>
+      </c>
+      <c r="G88">
+        <v>-0.005347898912889254</v>
+      </c>
+      <c r="H88">
+        <v>-0.04324082495823263</v>
+      </c>
+      <c r="I88">
+        <v>-0.05209494350253761</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2830345137984879</v>
+        <v>0.4083092766253485</v>
       </c>
       <c r="C89">
-        <v>0.3620787811608595</v>
+        <v>0.1809283810293806</v>
       </c>
       <c r="D89">
-        <v>-0.0342937702177805</v>
+        <v>0.02715464721372092</v>
       </c>
       <c r="E89">
-        <v>-0.09648686447997744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02493099033345569</v>
+      </c>
+      <c r="F89">
+        <v>-0.07015169255971272</v>
+      </c>
+      <c r="G89">
+        <v>-0.05112874607904512</v>
+      </c>
+      <c r="H89">
+        <v>-0.1294010690585241</v>
+      </c>
+      <c r="I89">
+        <v>0.3651850081973747</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2271605085890773</v>
+        <v>0.3110169283018965</v>
       </c>
       <c r="C90">
-        <v>0.2667888179969838</v>
+        <v>0.1204866394397907</v>
       </c>
       <c r="D90">
-        <v>-0.03832703250903642</v>
+        <v>0.03462632812919996</v>
       </c>
       <c r="E90">
-        <v>0.00668114636226841</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01620003628097932</v>
+      </c>
+      <c r="F90">
+        <v>0.01930007353964084</v>
+      </c>
+      <c r="G90">
+        <v>-0.06509981731848601</v>
+      </c>
+      <c r="H90">
+        <v>0.02125051559078652</v>
+      </c>
+      <c r="I90">
+        <v>-0.08115066843751594</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1740739259375118</v>
+        <v>0.07853538458182073</v>
       </c>
       <c r="C91">
-        <v>-0.1651270375201685</v>
+        <v>-0.2080447879740885</v>
       </c>
       <c r="D91">
-        <v>0.09447147444971594</v>
+        <v>-0.1085110211272567</v>
       </c>
       <c r="E91">
-        <v>-0.1029923145044032</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06856728468252545</v>
+      </c>
+      <c r="F91">
+        <v>-0.07110287564038283</v>
+      </c>
+      <c r="G91">
+        <v>-0.01679279799523575</v>
+      </c>
+      <c r="H91">
+        <v>-0.004594267359006676</v>
+      </c>
+      <c r="I91">
+        <v>-0.1153569133088637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2072425190824404</v>
+        <v>0.3289899162312271</v>
       </c>
       <c r="C92">
-        <v>0.2801343258747429</v>
+        <v>0.1567326525280508</v>
       </c>
       <c r="D92">
-        <v>0.0334859927548466</v>
+        <v>0.0006713254486692319</v>
       </c>
       <c r="E92">
-        <v>-0.0610353677385892</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07506409093642689</v>
+      </c>
+      <c r="F92">
+        <v>-0.02315471785160846</v>
+      </c>
+      <c r="G92">
+        <v>-0.03229605028444835</v>
+      </c>
+      <c r="H92">
+        <v>-0.03847781390888861</v>
+      </c>
+      <c r="I92">
+        <v>0.1428145140884264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2523019155747518</v>
+        <v>0.331068512553141</v>
       </c>
       <c r="C93">
-        <v>0.2788711350014454</v>
+        <v>0.1281897752836691</v>
       </c>
       <c r="D93">
-        <v>-0.01861917719068713</v>
+        <v>-0.01483181474092434</v>
       </c>
       <c r="E93">
-        <v>-0.005128169788281338</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02467352581826639</v>
+      </c>
+      <c r="F93">
+        <v>-0.01104708946680984</v>
+      </c>
+      <c r="G93">
+        <v>0.01110782856659746</v>
+      </c>
+      <c r="H93">
+        <v>-0.004893692768400787</v>
+      </c>
+      <c r="I93">
+        <v>-0.1053893031293207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3219092076506426</v>
+        <v>0.1506504282970143</v>
       </c>
       <c r="C94">
-        <v>-0.2281678771894828</v>
+        <v>-0.3471601461453989</v>
       </c>
       <c r="D94">
-        <v>0.3708888786045597</v>
+        <v>-0.3441420908123129</v>
       </c>
       <c r="E94">
-        <v>0.1732380852084285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04541952677206981</v>
+      </c>
+      <c r="F94">
+        <v>0.108380493426713</v>
+      </c>
+      <c r="G94">
+        <v>-0.3004939658976016</v>
+      </c>
+      <c r="H94">
+        <v>0.07161774346424508</v>
+      </c>
+      <c r="I94">
+        <v>0.402387355694576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.0231639562545214</v>
+        <v>0.02082505027742259</v>
       </c>
       <c r="C95">
-        <v>-0.03940130455299487</v>
+        <v>-0.06299021258285754</v>
       </c>
       <c r="D95">
-        <v>-0.08607095102765061</v>
+        <v>0.1158189336089954</v>
       </c>
       <c r="E95">
-        <v>-0.1087707121560643</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.2006433428436881</v>
+      </c>
+      <c r="F95">
+        <v>0.06849436277354107</v>
+      </c>
+      <c r="G95">
+        <v>0.1147282295116701</v>
+      </c>
+      <c r="H95">
+        <v>-0.3905348938146146</v>
+      </c>
+      <c r="I95">
+        <v>0.5119717694991408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0006269908906477038</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>5.97003608632651e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.000311580448819497</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.0008140542711580822</v>
+      </c>
+      <c r="F97">
+        <v>0.001649249730908732</v>
+      </c>
+      <c r="G97">
+        <v>0.000835061039760213</v>
+      </c>
+      <c r="H97">
+        <v>-0.0002285496995106163</v>
+      </c>
+      <c r="I97">
+        <v>0.0004458382151492021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1537866401965101</v>
+        <v>0.1198222572075306</v>
       </c>
       <c r="C98">
-        <v>-0.06115625213017908</v>
+        <v>-0.1376509239903223</v>
       </c>
       <c r="D98">
-        <v>-0.1056345125721557</v>
+        <v>0.05639444098027081</v>
       </c>
       <c r="E98">
-        <v>0.2173561439969281</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2710584703007395</v>
+      </c>
+      <c r="F98">
+        <v>0.1714616726162954</v>
+      </c>
+      <c r="G98">
+        <v>0.2711913093521025</v>
+      </c>
+      <c r="H98">
+        <v>0.1603070968508444</v>
+      </c>
+      <c r="I98">
+        <v>0.04646826039513598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002502074058375509</v>
+        <v>-0.000182867323205833</v>
       </c>
       <c r="C101">
-        <v>-0.02289292662817504</v>
+        <v>-0.02971555940530932</v>
       </c>
       <c r="D101">
-        <v>-0.101811317901474</v>
+        <v>0.0975385737405188</v>
       </c>
       <c r="E101">
-        <v>-0.009848924999669917</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.04205415289340038</v>
+      </c>
+      <c r="F101">
+        <v>-0.02889289110060675</v>
+      </c>
+      <c r="G101">
+        <v>-0.0003757220322188927</v>
+      </c>
+      <c r="H101">
+        <v>-0.1230113315183879</v>
+      </c>
+      <c r="I101">
+        <v>-0.01753958640124363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.123713815564901</v>
+        <v>0.04060448155687494</v>
       </c>
       <c r="C102">
-        <v>-0.1406287300589377</v>
+        <v>-0.1520264969836086</v>
       </c>
       <c r="D102">
-        <v>0.07290892950161722</v>
+        <v>-0.09316076423627655</v>
       </c>
       <c r="E102">
-        <v>0.03930399826347242</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03095790041366469</v>
+      </c>
+      <c r="F102">
+        <v>0.06656608580036426</v>
+      </c>
+      <c r="G102">
+        <v>0.008072214136659008</v>
+      </c>
+      <c r="H102">
+        <v>-0.05110877293884833</v>
+      </c>
+      <c r="I102">
+        <v>-0.01497007347156713</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
